--- a/medicine/Enfance/Cathy_Cassidy/Cathy_Cassidy.xlsx
+++ b/medicine/Enfance/Cathy_Cassidy/Cathy_Cassidy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cathy Cassidy née le 13 juin 1962, est une autrice britannique de romans pour adolescents et jeunes adultes, principalement axés sur la fiction domestique. 
 Après des études à l'université de Liverpool John Moores, Cathy Cassidy obtient un poste de rédactrice en chef au magazine Shout (en). Elle l'occupe pendant douze ans tout en donnant des cours d'art dans les écoles primaires. Elle reprend ensuite des cours à l'université pour devenir professeur d'art. Elle enseigne à Coventry pendant quelques années avant de suivre son mari en Écosse.[réf. nécessaire]
@@ -513,9 +525,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les Filles au chocolat (également adaptés en bandes dessinées sous les mêmes titres, mais avec une modification du découpage) [1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les Filles au chocolat (également adaptés en bandes dessinées sous les mêmes titres, mais avec une modification du découpage)  :
 Cœur cerise (tome 1)
 Cœur guimauve (tome 2)
 Cœur mandarine (tome 3)
